--- a/Data/Temp/Reporte.xlsx
+++ b/Data/Temp/Reporte.xlsx
@@ -43,7 +43,7 @@
     <x:t>CAS</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuadrantes_12_301222_1226.xls</x:t>
+    <x:t>Cuadrantes_12_030123_1647.xls</x:t>
   </x:si>
   <x:si>
     <x:t>OK</x:t>
@@ -61,7 +61,7 @@
     <x:t>VAL</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuadrantes_46_301222_1228.xls</x:t>
+    <x:t>Cuadrantes_46_030123_1652.xls</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -73,7 +73,7 @@
     <x:t>BAR</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuadrantes_8_301222_1230.xls</x:t>
+    <x:t>Cuadrantes_8_030123_1655.xls</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -85,7 +85,7 @@
     <x:t>MAD</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuadrantes_28_301222_1232.xls</x:t>
+    <x:t>Cuadrantes_28_030123_1657.xls</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/Data/Temp/Reporte.xlsx
+++ b/Data/Temp/Reporte.xlsx
@@ -43,7 +43,7 @@
     <x:t>CAS</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuadrantes_12_301222_1226.xls</x:t>
+    <x:t>Cuadrantes_12_030123_1923.xls</x:t>
   </x:si>
   <x:si>
     <x:t>OK</x:t>
@@ -61,7 +61,7 @@
     <x:t>VAL</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuadrantes_46_301222_1228.xls</x:t>
+    <x:t>Cuadrantes_46_030123_1925.xls</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -73,7 +73,7 @@
     <x:t>BAR</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuadrantes_8_301222_1230.xls</x:t>
+    <x:t>Cuadrantes_8_030123_1927.xls</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -85,7 +85,7 @@
     <x:t>MAD</x:t>
   </x:si>
   <x:si>
-    <x:t>Cuadrantes_28_301222_1232.xls</x:t>
+    <x:t>Cuadrantes_28_030123_1929.xls</x:t>
   </x:si>
 </x:sst>
 </file>
